--- a/kinematics.xlsx
+++ b/kinematics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a2ba2d43b018f1b4/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{FD929337-C641-44BE-9F53-5DF022C2DD38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DE40DD90-C82F-41E4-9734-6495E45F6516}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{FD929337-C641-44BE-9F53-5DF022C2DD38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{178C163D-2903-45E6-BC33-4946FB35CB1B}"/>
   <bookViews>
     <workbookView xWindow="984" yWindow="-108" windowWidth="22164" windowHeight="13176" xr2:uid="{86EDD03A-92BA-4657-AE42-E75ADC69D8EE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="94">
   <si>
     <t>X</t>
   </si>
@@ -659,9 +659,6 @@
     <t>1)</t>
   </si>
   <si>
-    <t>Start by selecting an X,Y, Z origin offset form the centerline of the arm</t>
-  </si>
-  <si>
     <t>Xoffset</t>
   </si>
   <si>
@@ -777,6 +774,15 @@
   </si>
   <si>
     <t>&lt;      X    &lt;</t>
+  </si>
+  <si>
+    <t>Drawings showing the links are further down.</t>
+  </si>
+  <si>
+    <t>Tool is on center line with Servo 1</t>
+  </si>
+  <si>
+    <t>Start by selecting an X,Y, Z origin offset from the centerline of the arm</t>
   </si>
 </sst>
 </file>
@@ -979,13 +985,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>463550</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1037,13 +1043,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>146049</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1097,13 +1103,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1157,13 +1163,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304798</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>12701</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>520699</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1217,13 +1223,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1277,13 +1283,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1337,13 +1343,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>603250</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1387,13 +1393,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>311150</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1437,13 +1443,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>165098</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1497,13 +1503,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1557,13 +1563,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>311150</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1607,13 +1613,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>425450</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>298450</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1665,13 +1671,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>177798</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>12698</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>412749</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1725,13 +1731,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1785,13 +1791,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1845,13 +1851,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1905,13 +1911,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>273050</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1955,13 +1961,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>285748</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>152402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>501649</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>63502</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2015,13 +2021,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2075,13 +2081,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>311150</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2125,13 +2131,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2185,13 +2191,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2235,13 +2241,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2285,13 +2291,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2343,13 +2349,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>425450</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2393,13 +2399,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2453,13 +2459,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2503,13 +2509,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2849,10 +2855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{614CD236-E25B-4B95-B9DA-DCFC654B9473}">
-  <dimension ref="A1:N105"/>
+  <dimension ref="A1:N107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2903,204 +2909,191 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="B6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B8" s="6"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
       <c r="B10" s="6"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="B11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="s">
+      <c r="B14" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
         <v>63</v>
-      </c>
-      <c r="C13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="6"/>
-      <c r="C14" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="6"/>
-      <c r="C15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="8">
-        <f>(B2+B3+B3)*-1*COS(PI()/4)</f>
-        <v>-180.8496303562714</v>
-      </c>
-      <c r="F15" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
       <c r="C16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="8">
-        <f>E15*-1</f>
-        <v>180.8496303562714</v>
-      </c>
-      <c r="F16" t="s">
-        <v>11</v>
+        <v>79</v>
+      </c>
+      <c r="G16" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="6"/>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E17" s="8">
-        <f>E16*2</f>
-        <v>361.69926071254281</v>
+        <f>(B2+B3+B3)*-1*COS(PI()/4)</f>
+        <v>-180.8496303562714</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
-      </c>
-      <c r="G17" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="6"/>
       <c r="C18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="10">
-        <v>20</v>
+        <v>66</v>
+      </c>
+      <c r="E18" s="8">
+        <f>E17*-1</f>
+        <v>180.8496303562714</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
-      </c>
-      <c r="G18" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="6"/>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E19" s="8">
-        <f>($B$2+$B$3+$B$3)*SIN(PI()/4)</f>
-        <v>180.84963035627138</v>
+        <f>E18*2</f>
+        <v>361.69926071254281</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
+      </c>
+      <c r="G19" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="6"/>
       <c r="C20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="8">
-        <f>$E$19-$E$18</f>
-        <v>160.84963035627138</v>
+        <v>68</v>
+      </c>
+      <c r="E20" s="10">
+        <v>60</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="6"/>
-      <c r="E21" s="8"/>
+      <c r="C21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="8">
+        <f>($B$2+$B$3+$B$3)*SIN(PI()/4)</f>
+        <v>180.84963035627138</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="6"/>
-      <c r="C22" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" s="4">
+      <c r="C22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="8">
+        <f>$E$21-$E$20</f>
+        <v>120.84963035627138</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="6"/>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="6"/>
+      <c r="C24" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="4">
         <f>B3+B3+B4</f>
         <v>318.76</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="6"/>
-      <c r="C23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="6">
-        <f>(B3+B3+B4)*SIN(PI()/4)</f>
-        <v>225.39735757102386</v>
-      </c>
-      <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="6"/>
-      <c r="C24" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" s="6">
-        <v>0</v>
-      </c>
-      <c r="F24" t="s">
-        <v>11</v>
+      <c r="E24" s="8" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="6"/>
       <c r="C25" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E25" s="6">
-        <f>(SQRT(((B3+B3+B4)^2)-E23^2))*COS(PI()/4)</f>
-        <v>159.38000000000002</v>
+        <f>(B3+B3+B4)*SIN(PI()/4)</f>
+        <v>225.39735757102386</v>
       </c>
       <c r="F25" t="s">
         <v>11</v>
+      </c>
+      <c r="G25" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
@@ -3108,9 +3101,8 @@
       <c r="C26" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="3">
-        <f>-1*E25</f>
-        <v>-159.38000000000002</v>
+      <c r="E26" s="6">
+        <v>0</v>
       </c>
       <c r="F26" t="s">
         <v>11</v>
@@ -3119,11 +3111,11 @@
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="6"/>
       <c r="C27" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" s="3">
-        <f>E25-E26</f>
-        <v>318.76000000000005</v>
+        <v>66</v>
+      </c>
+      <c r="E27" s="6">
+        <f>(SQRT(((B3+B3+B4)^2)-E25^2))*COS(PI()/4)</f>
+        <v>159.38000000000002</v>
       </c>
       <c r="F27" t="s">
         <v>11</v>
@@ -3132,11 +3124,11 @@
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="6"/>
       <c r="C28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="12">
-        <f>E18</f>
-        <v>20</v>
+        <v>64</v>
+      </c>
+      <c r="E28" s="3">
+        <f>-1*E27</f>
+        <v>-159.38000000000002</v>
       </c>
       <c r="F28" t="s">
         <v>11</v>
@@ -3145,11 +3137,11 @@
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="6"/>
       <c r="C29" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29">
-        <f>SQRT(E23^2-E25^2)</f>
-        <v>159.37999999999994</v>
+        <v>67</v>
+      </c>
+      <c r="E29" s="3">
+        <f>E27-E28</f>
+        <v>318.76000000000005</v>
       </c>
       <c r="F29" t="s">
         <v>11</v>
@@ -3158,474 +3150,500 @@
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="6"/>
       <c r="C30" t="s">
-        <v>71</v>
-      </c>
-      <c r="E30" s="8">
-        <f>E29-E28</f>
-        <v>139.37999999999994</v>
+        <v>68</v>
+      </c>
+      <c r="E30" s="12">
+        <f>E20</f>
+        <v>60</v>
       </c>
       <c r="F30" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="6"/>
-    </row>
-    <row r="32" spans="2:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31">
+        <f>SQRT(E25^2-E27^2)</f>
+        <v>159.37999999999994</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="6"/>
+      <c r="C32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="8">
+        <f>E31-E30</f>
+        <v>99.379999999999939</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="33" spans="2:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="6"/>
-      <c r="F33" t="s">
-        <v>85</v>
-      </c>
     </row>
     <row r="34" spans="2:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="6"/>
     </row>
     <row r="35" spans="2:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="6"/>
+      <c r="F35" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="36" spans="2:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="6"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="6"/>
-      <c r="E37" s="9"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="2:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="6"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" s="9">
-        <f>E26</f>
-        <v>-159.38000000000002</v>
-      </c>
-      <c r="D39" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" t="s">
-        <v>56</v>
-      </c>
+      <c r="B39" s="6"/>
+      <c r="E39" s="9"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" s="9">
-        <f>E28</f>
-        <v>20</v>
-      </c>
-      <c r="D40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" t="s">
-        <v>57</v>
-      </c>
+      <c r="B40" s="6"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="9">
+        <f>E28</f>
+        <v>-159.38000000000002</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="6">
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="9">
+        <f>E30</f>
+        <v>60</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="6">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D43" t="s">
         <v>11</v>
       </c>
-      <c r="E41" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
+      <c r="E43" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
-      <c r="F44" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
-      <c r="F45" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
+      <c r="F46" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
+      <c r="F47" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B53" s="6" t="s">
+    </row>
+    <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B57" s="13">
+        <v>0</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D57" s="15">
+        <f>E29</f>
+        <v>318.76000000000005</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B58" s="16">
+        <f>C42</f>
         <v>60</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B55" s="13">
+      <c r="C58" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D58" s="18">
+        <f>E32</f>
+        <v>99.379999999999939</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="19">
         <v>0</v>
       </c>
-      <c r="C55" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D55" s="15">
-        <f>E27</f>
-        <v>318.76000000000005</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B56" s="16">
-        <f>C40</f>
-        <v>20</v>
-      </c>
-      <c r="C56" s="17" t="s">
+      <c r="C59" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="D56" s="18">
-        <f>E30</f>
-        <v>139.37999999999994</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="19">
+      <c r="D59" s="21">
+        <f>E25</f>
+        <v>225.39735757102386</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B60" s="6"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B61" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C57" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D57" s="21">
-        <f>E23</f>
-        <v>225.39735757102386</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B58" s="6"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B59" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C59" s="7">
-        <v>100</v>
-      </c>
-      <c r="D59" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B60" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60" s="5">
-        <v>100</v>
-      </c>
-      <c r="D60" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B61" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C61" s="5">
+      <c r="C61" s="7">
         <v>100</v>
       </c>
       <c r="D61" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B62" s="6"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E63" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B62" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="5">
+        <v>100</v>
+      </c>
+      <c r="D62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B63" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="5">
+        <v>100</v>
+      </c>
+      <c r="D63" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B64" s="6"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E65" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G64" t="s">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G66" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="K65" s="3"/>
-    </row>
-    <row r="69" spans="2:14" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="G69" s="1" t="s">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="K67" s="3"/>
+    </row>
+    <row r="71" spans="2:14" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="G71" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M69" t="s">
+      <c r="M71" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="M70" t="s">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M72" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="2:14" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="E71" s="1"/>
-      <c r="J71" t="s">
+    <row r="73" spans="2:14" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="E73" s="1"/>
+      <c r="J73" t="s">
         <v>7</v>
       </c>
-      <c r="L71" t="s">
+      <c r="L73" t="s">
         <v>49</v>
       </c>
-      <c r="M71" s="2" t="s">
+      <c r="M73" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N71" t="s">
+      <c r="N73" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="2:14" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="H72" s="1" t="s">
+    <row r="74" spans="2:14" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="H74" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L72" t="s">
+      <c r="L74" t="s">
         <v>50</v>
       </c>
-      <c r="M72" s="2" t="s">
+      <c r="M74" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N72" t="s">
+      <c r="N74" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="2:14" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="E73" s="1" t="s">
+    <row r="75" spans="2:14" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="E75" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M73" s="2" t="s">
+      <c r="M75" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N73" t="s">
+      <c r="N75" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B74" t="s">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
         <v>10</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D76" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B75" t="s">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="J77" t="s">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="J79" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="J78" t="s">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="J80" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D82" t="s">
+    <row r="84" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D84" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="J83" t="s">
+    <row r="85" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="J85" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D85" t="s">
+    <row r="87" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D87" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D86" t="s">
+    <row r="88" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D88" t="s">
         <v>5</v>
       </c>
-      <c r="H86" t="s">
+      <c r="H88" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="H87" t="s">
+    <row r="89" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="H89" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="88" spans="2:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="I88" t="s">
+    <row r="90" spans="4:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="I90" t="s">
         <v>22</v>
       </c>
-      <c r="J88" s="3" t="s">
+      <c r="J90" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="89" spans="2:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="I89" t="s">
+    <row r="91" spans="4:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="I91" t="s">
         <v>21</v>
       </c>
-      <c r="J89" t="s">
+      <c r="J91" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="H90" t="s">
+    <row r="92" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="H92" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="2:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="I91" t="s">
+    <row r="93" spans="4:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="I93" t="s">
         <v>22</v>
       </c>
-      <c r="J91" t="s">
+      <c r="J93" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="92" spans="2:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="I92" t="s">
+    <row r="94" spans="4:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="I94" t="s">
         <v>21</v>
       </c>
-      <c r="J92" t="s">
+      <c r="J94" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="93" spans="2:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="I93" t="s">
+    <row r="95" spans="4:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="I95" t="s">
         <v>28</v>
       </c>
-      <c r="J93" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="H94" t="s">
+      <c r="J95" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="96" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="H96" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B95" s="3" t="s">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B97" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F97" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="H96" t="s">
+    <row r="98" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H98" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="H97" t="s">
+    <row r="99" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H99" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="98" spans="2:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="I98" t="s">
+    <row r="100" spans="2:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="I100" t="s">
         <v>22</v>
       </c>
-      <c r="J98" s="3" t="s">
+      <c r="J100" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="99" spans="2:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="I99" t="s">
+    <row r="101" spans="2:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="I101" t="s">
         <v>21</v>
       </c>
-      <c r="J99" t="s">
+      <c r="J101" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="H100" t="s">
+    <row r="102" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H102" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="101" spans="2:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B101" t="s">
+    <row r="103" spans="2:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B103" t="s">
         <v>32</v>
       </c>
-      <c r="I101" t="s">
+      <c r="I103" t="s">
         <v>22</v>
       </c>
-      <c r="J101" t="s">
+      <c r="J103" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="102" spans="2:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B102" s="3" t="s">
+    <row r="104" spans="2:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B104" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I102" t="s">
+      <c r="I104" t="s">
         <v>21</v>
       </c>
-      <c r="J102" t="s">
+      <c r="J104" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="103" spans="2:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="E103" s="4" t="s">
+    <row r="105" spans="2:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="E105" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I103" t="s">
+      <c r="I105" t="s">
         <v>28</v>
       </c>
-      <c r="J103" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="H104" t="s">
+      <c r="J105" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H106" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="105" spans="2:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="E105" t="s">
+    <row r="107" spans="2:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="E107" t="s">
         <v>28</v>
       </c>
     </row>

--- a/kinematics.xlsx
+++ b/kinematics.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a2ba2d43b018f1b4/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a2ba2d43b018f1b4/Documents/GitHub/DOT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{FD929337-C641-44BE-9F53-5DF022C2DD38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{178C163D-2903-45E6-BC33-4946FB35CB1B}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{FD929337-C641-44BE-9F53-5DF022C2DD38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D5DCDDAF-349C-4027-AA6B-E87BF0088DA8}"/>
   <bookViews>
     <workbookView xWindow="984" yWindow="-108" windowWidth="22164" windowHeight="13176" xr2:uid="{86EDD03A-92BA-4657-AE42-E75ADC69D8EE}"/>
   </bookViews>
@@ -952,16 +952,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2857,8 +2857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{614CD236-E25B-4B95-B9DA-DCFC654B9473}">
   <dimension ref="A1:N107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3335,26 +3335,25 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B58" s="16">
-        <f>C42</f>
-        <v>60</v>
-      </c>
-      <c r="C58" s="17" t="s">
+      <c r="B58" s="20">
+        <v>0</v>
+      </c>
+      <c r="C58" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="D58" s="18">
+      <c r="D58" s="17">
         <f>E32</f>
         <v>99.379999999999939</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="19">
+      <c r="B59" s="21">
         <v>0</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C59" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="D59" s="21">
+      <c r="D59" s="19">
         <f>E25</f>
         <v>225.39735757102386</v>
       </c>

--- a/kinematics.xlsx
+++ b/kinematics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a2ba2d43b018f1b4/Documents/GitHub/DOT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{FD929337-C641-44BE-9F53-5DF022C2DD38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D5DCDDAF-349C-4027-AA6B-E87BF0088DA8}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{FD929337-C641-44BE-9F53-5DF022C2DD38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DDEA543A-4FBB-4991-90F6-99356B5895D8}"/>
   <bookViews>
     <workbookView xWindow="984" yWindow="-108" windowWidth="22164" windowHeight="13176" xr2:uid="{86EDD03A-92BA-4657-AE42-E75ADC69D8EE}"/>
   </bookViews>
@@ -819,7 +819,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -829,6 +829,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,7 +931,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -945,23 +951,24 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2857,8 +2864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{614CD236-E25B-4B95-B9DA-DCFC654B9473}">
   <dimension ref="A1:N107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3049,9 +3056,10 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="6"/>
-      <c r="C22" t="s">
+      <c r="C22" s="6" t="s">
         <v>70</v>
       </c>
+      <c r="D22" s="6"/>
       <c r="E22" s="8">
         <f>$E$21-$E$20</f>
         <v>120.84963035627138</v>
@@ -3215,7 +3223,7 @@
       <c r="B40" s="6"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="13" t="s">
         <v>52</v>
       </c>
       <c r="C41" s="9">
@@ -3230,7 +3238,7 @@
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="13" t="s">
         <v>53</v>
       </c>
       <c r="C42" s="9">
@@ -3245,7 +3253,7 @@
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="13" t="s">
         <v>54</v>
       </c>
       <c r="C43" s="6">
@@ -3323,37 +3331,37 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B57" s="13">
+      <c r="B57" s="14">
         <v>0</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C57" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D57" s="15">
+      <c r="D57" s="16">
         <f>E29</f>
         <v>318.76000000000005</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B58" s="20">
+      <c r="B58" s="17">
         <v>0</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C58" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="D58" s="17">
+      <c r="D58" s="19">
         <f>E32</f>
         <v>99.379999999999939</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="21">
+      <c r="B59" s="20">
         <v>0</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="C59" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="D59" s="19">
+      <c r="D59" s="22">
         <f>E25</f>
         <v>225.39735757102386</v>
       </c>

--- a/kinematics.xlsx
+++ b/kinematics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a2ba2d43b018f1b4/Documents/GitHub/DOT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{FD929337-C641-44BE-9F53-5DF022C2DD38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DDEA543A-4FBB-4991-90F6-99356B5895D8}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{FD929337-C641-44BE-9F53-5DF022C2DD38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9FB813F3-D6C4-43D2-BC96-CBFF9851CA8E}"/>
   <bookViews>
     <workbookView xWindow="984" yWindow="-108" windowWidth="22164" windowHeight="13176" xr2:uid="{86EDD03A-92BA-4657-AE42-E75ADC69D8EE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="98">
   <si>
     <t>X</t>
   </si>
@@ -783,6 +783,18 @@
   </si>
   <si>
     <t>Start by selecting an X,Y, Z origin offset from the centerline of the arm</t>
+  </si>
+  <si>
+    <t>b)</t>
+  </si>
+  <si>
+    <t>3)</t>
+  </si>
+  <si>
+    <t>Convert to polar coordinates</t>
+  </si>
+  <si>
+    <t>calculate offset</t>
   </si>
 </sst>
 </file>
@@ -931,7 +943,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -969,6 +981,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2862,10 +2875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{614CD236-E25B-4B95-B9DA-DCFC654B9473}">
-  <dimension ref="A1:N107"/>
+  <dimension ref="A1:N114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3076,7 +3089,9 @@
       <c r="E23" s="8"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="6"/>
+      <c r="B24" s="6" t="s">
+        <v>94</v>
+      </c>
       <c r="C24" s="11" t="s">
         <v>80</v>
       </c>
@@ -3572,7 +3587,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B97" s="3" t="s">
         <v>26</v>
       </c>
@@ -3580,17 +3595,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H98" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H99" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="2:10" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="I100" t="s">
         <v>22</v>
       </c>
@@ -3598,7 +3613,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="101" spans="2:10" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="I101" t="s">
         <v>21</v>
       </c>
@@ -3606,12 +3621,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H102" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="103" spans="2:10" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B103" t="s">
         <v>32</v>
       </c>
@@ -3622,7 +3637,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="104" spans="2:10" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B104" s="3" t="s">
         <v>35</v>
       </c>
@@ -3633,7 +3648,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="105" spans="2:10" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="E105" s="4" t="s">
         <v>25</v>
       </c>
@@ -3644,14 +3659,62 @@
         <v>61</v>
       </c>
     </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H106" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="107" spans="2:10" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="E107" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>95</v>
+      </c>
+      <c r="B109" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>62</v>
+      </c>
+      <c r="C110" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C111" t="s">
+        <v>0</v>
+      </c>
+      <c r="D111" s="23">
+        <f>C61+C41</f>
+        <v>-59.380000000000024</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C112" t="s">
+        <v>1</v>
+      </c>
+      <c r="D112" s="8">
+        <f>C62+C42</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C113" t="s">
+        <v>2</v>
+      </c>
+      <c r="D113">
+        <f>C63+C43</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
